--- a/documents/画面遷移図_MYT.xlsx
+++ b/documents/画面遷移図_MYT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\作成ドキュメント\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918654CB-090F-49E4-9959-784E31EB4979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F029E-43E0-4BA1-B443-5F3A36A50204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,129 +509,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C95717F-D6B5-4357-AE80-328C815478E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277225" y="47625"/>
-          <a:ext cx="2190750" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>トークルーム</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DC9E2E-0551-47A8-B06D-634DAAB1E00A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8258175" y="3810000"/>
-          <a:ext cx="2190750" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
-            <a:t>自己紹介</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -688,67 +565,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9785A8-1ACC-4674-80C9-41EA79C74396}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8239125" y="1571624"/>
-          <a:ext cx="2190750" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
-            <a:t>掲示板</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -805,16 +621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -829,8 +645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="85724"/>
-          <a:ext cx="2190750" cy="904875"/>
+          <a:off x="8251825" y="101599"/>
+          <a:ext cx="2181225" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -866,72 +682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCF92B0-727B-4E9E-B1F7-0A0CA30CB5D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13782675" y="523875"/>
-          <a:ext cx="1047750" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -946,8 +706,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14839950" y="104775"/>
-          <a:ext cx="2190750" cy="904875"/>
+          <a:off x="11601450" y="88900"/>
+          <a:ext cx="2178050" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1039,16 +799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1063,8 +823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11610975" y="3857625"/>
-          <a:ext cx="2190750" cy="857250"/>
+          <a:off x="8274050" y="3940175"/>
+          <a:ext cx="2181225" cy="873125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1100,72 +860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0E8F09-981D-43C7-89C4-FC792F39E0F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13839825" y="4267200"/>
-          <a:ext cx="1152525" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1180,8 +884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14992350" y="3867150"/>
-          <a:ext cx="2190750" cy="857250"/>
+          <a:off x="11671300" y="3921125"/>
+          <a:ext cx="2181225" cy="873125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1217,64 +921,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>249011</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417FDFCA-7677-475A-8DCF-7BE41C541A8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10386332" y="2081892"/>
-          <a:ext cx="1138918" cy="4085"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>663773</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -1393,133 +1039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>242208</xdr:colOff>
+      <xdr:colOff>234496</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>110217</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>398690</xdr:colOff>
+      <xdr:colOff>378732</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>110218</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA57760-245A-4A62-AB7C-5AC98C5420CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9699172" y="5335360"/>
-          <a:ext cx="2197554" cy="884465"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1"/>
-            <a:t>マイページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>417740</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>46265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>662668</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>46265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB919716-F0AA-4306-9AF5-DD5118931FEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11915776" y="5802086"/>
-          <a:ext cx="925285" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>59871</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>73026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1534,8 +1062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12918621" y="5377543"/>
-          <a:ext cx="2185307" cy="884465"/>
+          <a:off x="9695996" y="5232400"/>
+          <a:ext cx="2192111" cy="873126"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1741,68 +1269,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426536D3-8DE5-4313-9408-1A6CD1B91AEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8248650" y="2914650"/>
-          <a:ext cx="2190750" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>お問い合わせ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>280307</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -1859,14 +1325,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195036</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>102054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>201386</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328386</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>140154</xdr:rowOff>
     </xdr:to>
@@ -1883,8 +1349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11566072" y="3027590"/>
-          <a:ext cx="2174421" cy="745671"/>
+          <a:off x="8291286" y="2991304"/>
+          <a:ext cx="2181225" cy="736600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1921,72 +1387,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122011</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>153761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>568779</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5C7261-E749-4E88-9597-84428CBF3452}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13745936" y="3433082"/>
-          <a:ext cx="1042307" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>582386</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>29936</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:colOff>252186</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2001,8 +1411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14801850" y="3067050"/>
-          <a:ext cx="2168979" cy="745671"/>
+          <a:off x="11631386" y="3014889"/>
+          <a:ext cx="2178050" cy="734332"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2214,16 +1624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>117928</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>187778</xdr:colOff>
+      <xdr:rowOff>49893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251278</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>129268</xdr:rowOff>
+      <xdr:rowOff>97518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2238,8 +1648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11552464" y="1592036"/>
-          <a:ext cx="2174421" cy="932089"/>
+          <a:off x="8214178" y="1542143"/>
+          <a:ext cx="2181225" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2275,16 +1685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256267</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23134</xdr:rowOff>
+      <xdr:rowOff>77108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>637269</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166009</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2301,8 +1711,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13715999" y="1619251"/>
-          <a:ext cx="1061359" cy="444954"/>
+          <a:off x="10400392" y="1569358"/>
+          <a:ext cx="1063627" cy="438151"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2333,16 +1743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>557894</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>637269</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
+      <xdr:rowOff>77108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90261</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>77107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2357,8 +1767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14777358" y="1265465"/>
-          <a:ext cx="2174421" cy="707571"/>
+          <a:off x="11464019" y="1220108"/>
+          <a:ext cx="2183492" cy="698499"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2394,16 +1804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>187778</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251278</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>646340</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>106589</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2421,8 +1831,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13726885" y="2058081"/>
-          <a:ext cx="1091294" cy="459240"/>
+          <a:off x="10395403" y="2002518"/>
+          <a:ext cx="1077687" cy="469446"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2453,16 +1863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>646340</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>51707</xdr:colOff>
+      <xdr:rowOff>106589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
+      <xdr:rowOff>106588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2477,8 +1887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14818179" y="2163535"/>
-          <a:ext cx="2174421" cy="707571"/>
+          <a:off x="11473090" y="2122714"/>
+          <a:ext cx="2183492" cy="698499"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2572,16 +1982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>244928</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>408216</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>471716</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>63953</xdr:rowOff>
+      <xdr:rowOff>95703</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2596,8 +2006,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16968107" y="1129392"/>
-          <a:ext cx="1061359" cy="444954"/>
+          <a:off x="13647964" y="1149803"/>
+          <a:ext cx="1063627" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2628,16 +2038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>421822</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532947</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:rowOff>70304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219982</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>151946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2652,8 +2062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18043072" y="762000"/>
-          <a:ext cx="2408464" cy="707571"/>
+          <a:off x="14772822" y="768804"/>
+          <a:ext cx="2417535" cy="700767"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2689,16 +2099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>77108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2715,8 +2125,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16954500" y="1605643"/>
-          <a:ext cx="1102178" cy="802822"/>
+          <a:off x="13666107" y="1651000"/>
+          <a:ext cx="1104446" cy="791483"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2747,16 +2157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>122463</xdr:colOff>
+      <xdr:rowOff>77108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>77107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2771,8 +2181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18056678" y="2054679"/>
-          <a:ext cx="2408464" cy="707571"/>
+          <a:off x="14770553" y="2093233"/>
+          <a:ext cx="2417535" cy="698499"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2808,16 +2218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>265340</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>278946</xdr:colOff>
+      <xdr:rowOff>151946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>376465</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>77108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2834,9 +2244,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19247304" y="1469571"/>
-          <a:ext cx="13606" cy="585108"/>
+        <a:xfrm flipH="1">
+          <a:off x="15979321" y="1469571"/>
+          <a:ext cx="2269" cy="623662"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2865,6 +2275,296 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1483419" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFCC51D-4CD1-4705-9C65-1C41618533DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6826250" y="238125"/>
+          <a:ext cx="1483419" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「トークルーム」を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1151726" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A5D4AE-B393-425C-8AF0-FD96E76EC955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6937375" y="1730375"/>
+          <a:ext cx="1151726" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「掲示板」を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1559529" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B114FA0D-9886-40AF-AE8E-931CBB6E503C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7032625" y="2730500"/>
+          <a:ext cx="1559529" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「お問い合わせ」を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1292790" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CF43C8-C063-47C1-96EF-437F6209FAFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985000" y="4048125"/>
+          <a:ext cx="1292790" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「自己紹介」を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1372107" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDA0DAD-DF5C-4980-A737-8881CD806FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7175500" y="5334000"/>
+          <a:ext cx="1372107" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「マイページ」を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3540,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
